--- a/data/pca/factorExposure/factorExposure_2012-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-25.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01686306206575235</v>
+        <v>-0.0160141385682288</v>
       </c>
       <c r="C2">
-        <v>-0.03494851258305512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02800244997450912</v>
+      </c>
+      <c r="D2">
+        <v>-0.00429248609754617</v>
+      </c>
+      <c r="E2">
+        <v>-0.007821155597156078</v>
+      </c>
+      <c r="F2">
+        <v>-0.008974310869994995</v>
+      </c>
+      <c r="G2">
+        <v>-7.265851910703326e-05</v>
+      </c>
+      <c r="H2">
+        <v>0.05517303774577533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07598824475788903</v>
+        <v>-0.08544935401042109</v>
       </c>
       <c r="C4">
-        <v>-0.05508688720782901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03747259578657196</v>
+      </c>
+      <c r="D4">
+        <v>-0.06803407739657626</v>
+      </c>
+      <c r="E4">
+        <v>-0.008094909748986558</v>
+      </c>
+      <c r="F4">
+        <v>-0.02875341882842841</v>
+      </c>
+      <c r="G4">
+        <v>0.00759252693927513</v>
+      </c>
+      <c r="H4">
+        <v>-0.04499819019771088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1076384920367493</v>
+        <v>-0.1197321152185716</v>
       </c>
       <c r="C6">
-        <v>-0.0538448635342745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03406165729339232</v>
+      </c>
+      <c r="D6">
+        <v>-0.01154415628515471</v>
+      </c>
+      <c r="E6">
+        <v>0.002877812410971447</v>
+      </c>
+      <c r="F6">
+        <v>-0.06337187696813122</v>
+      </c>
+      <c r="G6">
+        <v>0.02376254275747</v>
+      </c>
+      <c r="H6">
+        <v>0.07630179208607937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04999074225455628</v>
+        <v>-0.06167974573467427</v>
       </c>
       <c r="C7">
-        <v>-0.02706708148929683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01845565317651898</v>
+      </c>
+      <c r="D7">
+        <v>-0.0437853824934864</v>
+      </c>
+      <c r="E7">
+        <v>-0.03116146956317779</v>
+      </c>
+      <c r="F7">
+        <v>-0.03843071077531216</v>
+      </c>
+      <c r="G7">
+        <v>-0.03740328383142694</v>
+      </c>
+      <c r="H7">
+        <v>-0.02678492562727377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03647537762079548</v>
+        <v>-0.03908370408690737</v>
       </c>
       <c r="C8">
-        <v>-0.01187002729154908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.004951974521489991</v>
+      </c>
+      <c r="D8">
+        <v>-0.03114512834258013</v>
+      </c>
+      <c r="E8">
+        <v>-0.02144747903089262</v>
+      </c>
+      <c r="F8">
+        <v>-0.03860930547309085</v>
+      </c>
+      <c r="G8">
+        <v>0.03300034152600861</v>
+      </c>
+      <c r="H8">
+        <v>-0.004222665985032147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06850327478513402</v>
+        <v>-0.07658450448990356</v>
       </c>
       <c r="C9">
-        <v>-0.04506509360961885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02809189453967256</v>
+      </c>
+      <c r="D9">
+        <v>-0.06315814925905637</v>
+      </c>
+      <c r="E9">
+        <v>-0.02716748035849132</v>
+      </c>
+      <c r="F9">
+        <v>-0.03442397275769495</v>
+      </c>
+      <c r="G9">
+        <v>0.01083829936914249</v>
+      </c>
+      <c r="H9">
+        <v>-0.05746983648910083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03086525504710579</v>
+        <v>-0.03694702069986767</v>
       </c>
       <c r="C10">
-        <v>-0.03563346467942628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04307418447317466</v>
+      </c>
+      <c r="D10">
+        <v>0.1745859017220266</v>
+      </c>
+      <c r="E10">
+        <v>-0.05450655148159651</v>
+      </c>
+      <c r="F10">
+        <v>-0.04174205681276021</v>
+      </c>
+      <c r="G10">
+        <v>-0.03714554657722262</v>
+      </c>
+      <c r="H10">
+        <v>0.0359983347681392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07148020774755308</v>
+        <v>-0.0754040802169388</v>
       </c>
       <c r="C11">
-        <v>-0.04562957683430098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02619738378055753</v>
+      </c>
+      <c r="D11">
+        <v>-0.06179506748583489</v>
+      </c>
+      <c r="E11">
+        <v>0.007694017184417172</v>
+      </c>
+      <c r="F11">
+        <v>-0.02372846697780375</v>
+      </c>
+      <c r="G11">
+        <v>0.0003789716017623135</v>
+      </c>
+      <c r="H11">
+        <v>-0.09641747443624012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05741261857356857</v>
+        <v>-0.06446984838401432</v>
       </c>
       <c r="C12">
-        <v>-0.0492546357151159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03430451099413805</v>
+      </c>
+      <c r="D12">
+        <v>-0.04887762855866371</v>
+      </c>
+      <c r="E12">
+        <v>-0.01284214070405785</v>
+      </c>
+      <c r="F12">
+        <v>-0.01673233584031325</v>
+      </c>
+      <c r="G12">
+        <v>0.004294913163474969</v>
+      </c>
+      <c r="H12">
+        <v>-0.05816929671590922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06300131816330989</v>
+        <v>-0.06539286212533114</v>
       </c>
       <c r="C13">
-        <v>-0.04305618817579107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02506669779890848</v>
+      </c>
+      <c r="D13">
+        <v>-0.0405397998772019</v>
+      </c>
+      <c r="E13">
+        <v>-0.009765298652711125</v>
+      </c>
+      <c r="F13">
+        <v>2.051135300420084e-05</v>
+      </c>
+      <c r="G13">
+        <v>-0.000787153118276077</v>
+      </c>
+      <c r="H13">
+        <v>-0.05484593745382248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03197126952489435</v>
+        <v>-0.03902429518984107</v>
       </c>
       <c r="C14">
-        <v>-0.0295515849882396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02471515270367929</v>
+      </c>
+      <c r="D14">
+        <v>-0.005979241576065471</v>
+      </c>
+      <c r="E14">
+        <v>-0.0220566369480718</v>
+      </c>
+      <c r="F14">
+        <v>-0.01308543009884409</v>
+      </c>
+      <c r="G14">
+        <v>0.01650091019230462</v>
+      </c>
+      <c r="H14">
+        <v>-0.05941021693600631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03928685779161119</v>
+        <v>-0.03905177361079488</v>
       </c>
       <c r="C15">
-        <v>-0.01063298244754822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002679657587523036</v>
+      </c>
+      <c r="D15">
+        <v>-0.00517826843258555</v>
+      </c>
+      <c r="E15">
+        <v>-0.04474146856966869</v>
+      </c>
+      <c r="F15">
+        <v>0.005901876755627378</v>
+      </c>
+      <c r="G15">
+        <v>0.0276757713549659</v>
+      </c>
+      <c r="H15">
+        <v>-0.0441281793086298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06058365537409279</v>
+        <v>-0.06784408008233919</v>
       </c>
       <c r="C16">
-        <v>-0.04111656287494921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02649315550752474</v>
+      </c>
+      <c r="D16">
+        <v>-0.06148179412363072</v>
+      </c>
+      <c r="E16">
+        <v>-0.005580118068489531</v>
+      </c>
+      <c r="F16">
+        <v>-0.02234685082157443</v>
+      </c>
+      <c r="G16">
+        <v>0.0004791911219666187</v>
+      </c>
+      <c r="H16">
+        <v>-0.06205542599055761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06474489778159415</v>
+        <v>-0.06379583402076817</v>
       </c>
       <c r="C20">
-        <v>-0.03184754078923991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01310938308672527</v>
+      </c>
+      <c r="D20">
+        <v>-0.04430480614604958</v>
+      </c>
+      <c r="E20">
+        <v>-0.02229516461990471</v>
+      </c>
+      <c r="F20">
+        <v>-0.01900547956278943</v>
+      </c>
+      <c r="G20">
+        <v>0.007812418519595371</v>
+      </c>
+      <c r="H20">
+        <v>-0.05995070779384574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02373846789794414</v>
+        <v>-0.02188314783418317</v>
       </c>
       <c r="C21">
-        <v>0.004358105822309203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01249828181797856</v>
+      </c>
+      <c r="D21">
+        <v>-0.03801144394714474</v>
+      </c>
+      <c r="E21">
+        <v>-0.06848072143478384</v>
+      </c>
+      <c r="F21">
+        <v>0.0241263436896052</v>
+      </c>
+      <c r="G21">
+        <v>0.01474055586225906</v>
+      </c>
+      <c r="H21">
+        <v>0.05028587447611687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07444566160376595</v>
+        <v>-0.06871283241362629</v>
       </c>
       <c r="C22">
-        <v>-0.06016363652516715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03485883062488077</v>
+      </c>
+      <c r="D22">
+        <v>-0.09696703012256179</v>
+      </c>
+      <c r="E22">
+        <v>-0.5974863758630462</v>
+      </c>
+      <c r="F22">
+        <v>0.1843088228497817</v>
+      </c>
+      <c r="G22">
+        <v>-0.034484109491638</v>
+      </c>
+      <c r="H22">
+        <v>0.1657607152746446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07540542131881932</v>
+        <v>-0.06931574492071821</v>
       </c>
       <c r="C23">
-        <v>-0.05907555117878551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03356138903752066</v>
+      </c>
+      <c r="D23">
+        <v>-0.09797404856163482</v>
+      </c>
+      <c r="E23">
+        <v>-0.596754582089857</v>
+      </c>
+      <c r="F23">
+        <v>0.1833181630620251</v>
+      </c>
+      <c r="G23">
+        <v>-0.03275769057399339</v>
+      </c>
+      <c r="H23">
+        <v>0.1615661710498777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06980106924101</v>
+        <v>-0.07804385010254879</v>
       </c>
       <c r="C24">
-        <v>-0.04887873089789191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03189207607632915</v>
+      </c>
+      <c r="D24">
+        <v>-0.05999728262795837</v>
+      </c>
+      <c r="E24">
+        <v>-0.01286943287217858</v>
+      </c>
+      <c r="F24">
+        <v>-0.03140736139083885</v>
+      </c>
+      <c r="G24">
+        <v>0.009639498365683738</v>
+      </c>
+      <c r="H24">
+        <v>-0.06997683018432643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07037627914579209</v>
+        <v>-0.07617259178751727</v>
       </c>
       <c r="C25">
-        <v>-0.05472200749375475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03657474435829736</v>
+      </c>
+      <c r="D25">
+        <v>-0.05340237573611481</v>
+      </c>
+      <c r="E25">
+        <v>-0.01499580292583763</v>
+      </c>
+      <c r="F25">
+        <v>-0.02545358696064675</v>
+      </c>
+      <c r="G25">
+        <v>0.02156145306912917</v>
+      </c>
+      <c r="H25">
+        <v>-0.07363929726963332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04357942775981185</v>
+        <v>-0.04621831284971654</v>
       </c>
       <c r="C26">
-        <v>-0.007815094903906319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.000333666698777722</v>
+      </c>
+      <c r="D26">
+        <v>-0.024485313874387</v>
+      </c>
+      <c r="E26">
+        <v>-0.04273624546792566</v>
+      </c>
+      <c r="F26">
+        <v>-0.0197415364744374</v>
+      </c>
+      <c r="G26">
+        <v>-0.00111328663896937</v>
+      </c>
+      <c r="H26">
+        <v>-0.06597804389920162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05924991684901831</v>
+        <v>-0.07156593291524234</v>
       </c>
       <c r="C28">
-        <v>-0.07495227250542238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08506964155340196</v>
+      </c>
+      <c r="D28">
+        <v>0.3067929160107636</v>
+      </c>
+      <c r="E28">
+        <v>-0.03587970856427262</v>
+      </c>
+      <c r="F28">
+        <v>-0.0530518579970609</v>
+      </c>
+      <c r="G28">
+        <v>0.02370105887726936</v>
+      </c>
+      <c r="H28">
+        <v>0.0368867371774878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04046135939308887</v>
+        <v>-0.04705676352263252</v>
       </c>
       <c r="C29">
-        <v>-0.03001628319887385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0233682743556856</v>
+      </c>
+      <c r="D29">
+        <v>-0.006281948684770549</v>
+      </c>
+      <c r="E29">
+        <v>-0.04818572116197654</v>
+      </c>
+      <c r="F29">
+        <v>-0.001257383431045373</v>
+      </c>
+      <c r="G29">
+        <v>0.001874234950298104</v>
+      </c>
+      <c r="H29">
+        <v>-0.08523018711548166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1254104723051248</v>
+        <v>-0.1334171372768598</v>
       </c>
       <c r="C30">
-        <v>-0.09219059620629827</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.05797863989680663</v>
+      </c>
+      <c r="D30">
+        <v>-0.08793099923465707</v>
+      </c>
+      <c r="E30">
+        <v>-0.04493348658532489</v>
+      </c>
+      <c r="F30">
+        <v>-0.005292174876990801</v>
+      </c>
+      <c r="G30">
+        <v>0.0443986065561969</v>
+      </c>
+      <c r="H30">
+        <v>0.01611945039099067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04109698193631936</v>
+        <v>-0.04664464062856528</v>
       </c>
       <c r="C31">
-        <v>-0.01810855219940939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01007513762754929</v>
+      </c>
+      <c r="D31">
+        <v>-0.02574330744762071</v>
+      </c>
+      <c r="E31">
+        <v>-0.02674565535276618</v>
+      </c>
+      <c r="F31">
+        <v>-0.01089249285402937</v>
+      </c>
+      <c r="G31">
+        <v>-0.01610718514315981</v>
+      </c>
+      <c r="H31">
+        <v>-0.07459249811557882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03749467307438355</v>
+        <v>-0.03636050674181145</v>
       </c>
       <c r="C32">
-        <v>-0.02148213699261539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01421935979826622</v>
+      </c>
+      <c r="D32">
+        <v>-0.009154369459842491</v>
+      </c>
+      <c r="E32">
+        <v>-0.06633776856778356</v>
+      </c>
+      <c r="F32">
+        <v>0.008769295773384464</v>
+      </c>
+      <c r="G32">
+        <v>0.04269687080401081</v>
+      </c>
+      <c r="H32">
+        <v>-0.06896033573060006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0806019446525198</v>
+        <v>-0.09405604073663568</v>
       </c>
       <c r="C33">
-        <v>-0.04250190616366159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02633527339908133</v>
+      </c>
+      <c r="D33">
+        <v>-0.0553449448880792</v>
+      </c>
+      <c r="E33">
+        <v>-0.01727604023547605</v>
+      </c>
+      <c r="F33">
+        <v>-0.003072189056608536</v>
+      </c>
+      <c r="G33">
+        <v>-0.006731113316470988</v>
+      </c>
+      <c r="H33">
+        <v>-0.07690784394685742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05552602004766514</v>
+        <v>-0.05981476284217827</v>
       </c>
       <c r="C34">
-        <v>-0.0271502218204092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01224260366748564</v>
+      </c>
+      <c r="D34">
+        <v>-0.05298362658579563</v>
+      </c>
+      <c r="E34">
+        <v>-0.00656139009602599</v>
+      </c>
+      <c r="F34">
+        <v>-0.01395096146758798</v>
+      </c>
+      <c r="G34">
+        <v>0.009239745745327078</v>
+      </c>
+      <c r="H34">
+        <v>-0.05944888005743886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0379612851723087</v>
+        <v>-0.04148582175776335</v>
       </c>
       <c r="C35">
-        <v>-0.00828589098626378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.001585885361174069</v>
+      </c>
+      <c r="D35">
+        <v>-0.007315939740201147</v>
+      </c>
+      <c r="E35">
+        <v>-0.02256180258205568</v>
+      </c>
+      <c r="F35">
+        <v>0.01084855101330619</v>
+      </c>
+      <c r="G35">
+        <v>-0.007638338810885345</v>
+      </c>
+      <c r="H35">
+        <v>-0.03835496414892314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02018183099533271</v>
+        <v>-0.02623572645149688</v>
       </c>
       <c r="C36">
-        <v>-0.01654620332354892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01251568271387465</v>
+      </c>
+      <c r="D36">
+        <v>-0.01506397253270044</v>
+      </c>
+      <c r="E36">
+        <v>-0.04101260997547866</v>
+      </c>
+      <c r="F36">
+        <v>-0.01540120020723744</v>
+      </c>
+      <c r="G36">
+        <v>-0.00636114671106527</v>
+      </c>
+      <c r="H36">
+        <v>-0.05525888051284669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04055191017441327</v>
+        <v>-0.04291168186983793</v>
       </c>
       <c r="C38">
-        <v>-0.003479942676192084</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002220939229593388</v>
+      </c>
+      <c r="D38">
+        <v>-0.01498898426268725</v>
+      </c>
+      <c r="E38">
+        <v>-0.06093183673966309</v>
+      </c>
+      <c r="F38">
+        <v>0.01814410786257981</v>
+      </c>
+      <c r="G38">
+        <v>0.0183677691492602</v>
+      </c>
+      <c r="H38">
+        <v>-0.02600123840884563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09362870059184358</v>
+        <v>-0.1036405153061338</v>
       </c>
       <c r="C39">
-        <v>-0.07189614631056937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04776923714256376</v>
+      </c>
+      <c r="D39">
+        <v>-0.07009664895233282</v>
+      </c>
+      <c r="E39">
+        <v>0.01085284537641247</v>
+      </c>
+      <c r="F39">
+        <v>-0.01018445604535951</v>
+      </c>
+      <c r="G39">
+        <v>0.03192151244273046</v>
+      </c>
+      <c r="H39">
+        <v>-0.06970886358398468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07433650754310854</v>
+        <v>-0.07179663292434031</v>
       </c>
       <c r="C40">
-        <v>-0.04040939443672256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01977097852954877</v>
+      </c>
+      <c r="D40">
+        <v>-0.005782372616171096</v>
+      </c>
+      <c r="E40">
+        <v>-0.01570475171664228</v>
+      </c>
+      <c r="F40">
+        <v>0.05580794136873529</v>
+      </c>
+      <c r="G40">
+        <v>0.03931687993231054</v>
+      </c>
+      <c r="H40">
+        <v>0.06448924927036256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03995233504403052</v>
+        <v>-0.04269556398204347</v>
       </c>
       <c r="C41">
-        <v>-0.005611424554839563</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001684757132233883</v>
+      </c>
+      <c r="D41">
+        <v>-0.03478054088621419</v>
+      </c>
+      <c r="E41">
+        <v>-0.008213703915443991</v>
+      </c>
+      <c r="F41">
+        <v>0.01555615978713718</v>
+      </c>
+      <c r="G41">
+        <v>0.01462500916071863</v>
+      </c>
+      <c r="H41">
+        <v>-0.03568660642739761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04638128183934152</v>
+        <v>-0.05469417180610156</v>
       </c>
       <c r="C43">
-        <v>-0.02487367342694096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01594908213492169</v>
+      </c>
+      <c r="D43">
+        <v>-0.02462222373629218</v>
+      </c>
+      <c r="E43">
+        <v>-0.01700670261995266</v>
+      </c>
+      <c r="F43">
+        <v>-0.006912286631756396</v>
+      </c>
+      <c r="G43">
+        <v>-0.005152877701605126</v>
+      </c>
+      <c r="H43">
+        <v>-0.04932715180203208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09523584950064964</v>
+        <v>-0.09066225300531712</v>
       </c>
       <c r="C44">
-        <v>-0.09286815059547537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06074709278443747</v>
+      </c>
+      <c r="D44">
+        <v>-0.06642881947864679</v>
+      </c>
+      <c r="E44">
+        <v>-0.08434596478462603</v>
+      </c>
+      <c r="F44">
+        <v>-0.03969133597605503</v>
+      </c>
+      <c r="G44">
+        <v>0.02362700820049618</v>
+      </c>
+      <c r="H44">
+        <v>-0.02454075090654812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02485884421071863</v>
+        <v>-0.03106623666295655</v>
       </c>
       <c r="C46">
-        <v>-0.01299638671483761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.008584658159614811</v>
+      </c>
+      <c r="D46">
+        <v>-0.03349689647277368</v>
+      </c>
+      <c r="E46">
+        <v>-0.02151460048665802</v>
+      </c>
+      <c r="F46">
+        <v>-0.01571204717089443</v>
+      </c>
+      <c r="G46">
+        <v>0.007698941779714709</v>
+      </c>
+      <c r="H46">
+        <v>-0.03626802809479374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02732173507270767</v>
+        <v>-0.03500645316074523</v>
       </c>
       <c r="C47">
-        <v>-0.02501546496291306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01942218551808673</v>
+      </c>
+      <c r="D47">
+        <v>-0.01786960815222038</v>
+      </c>
+      <c r="E47">
+        <v>-0.0493857069396303</v>
+      </c>
+      <c r="F47">
+        <v>-0.01087574206647843</v>
+      </c>
+      <c r="G47">
+        <v>-0.03893716028048522</v>
+      </c>
+      <c r="H47">
+        <v>-0.02953364424419325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03096307522609657</v>
+        <v>-0.03689293188185699</v>
       </c>
       <c r="C48">
-        <v>-0.01511762884075138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.008787516969642084</v>
+      </c>
+      <c r="D48">
+        <v>-0.0236204749059468</v>
+      </c>
+      <c r="E48">
+        <v>-0.04409017126988247</v>
+      </c>
+      <c r="F48">
+        <v>-0.001635694917907697</v>
+      </c>
+      <c r="G48">
+        <v>0.01259387979925881</v>
+      </c>
+      <c r="H48">
+        <v>-0.05531330721399307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1646878748746441</v>
+        <v>-0.1915527310662329</v>
       </c>
       <c r="C49">
-        <v>-0.06438530980457051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03712250009886236</v>
+      </c>
+      <c r="D49">
+        <v>-0.02588291100562823</v>
+      </c>
+      <c r="E49">
+        <v>0.1340827747917181</v>
+      </c>
+      <c r="F49">
+        <v>-0.0670589793636398</v>
+      </c>
+      <c r="G49">
+        <v>-0.07674145687560904</v>
+      </c>
+      <c r="H49">
+        <v>0.2255780197318529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03773974426071543</v>
+        <v>-0.0444164655227188</v>
       </c>
       <c r="C50">
-        <v>-0.02183975373014782</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01515919723664513</v>
+      </c>
+      <c r="D50">
+        <v>-0.03378258630691096</v>
+      </c>
+      <c r="E50">
+        <v>-0.05120470523307206</v>
+      </c>
+      <c r="F50">
+        <v>-0.01384010384428447</v>
+      </c>
+      <c r="G50">
+        <v>-0.01197538672950743</v>
+      </c>
+      <c r="H50">
+        <v>-0.06970557606580725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02590514268034776</v>
+        <v>-0.02731128193200553</v>
       </c>
       <c r="C51">
-        <v>-0.00931008739908485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.004932704702703812</v>
+      </c>
+      <c r="D51">
+        <v>-0.02098694678530322</v>
+      </c>
+      <c r="E51">
+        <v>-0.01711549520850982</v>
+      </c>
+      <c r="F51">
+        <v>-0.007572809204855467</v>
+      </c>
+      <c r="G51">
+        <v>0.002947160070880853</v>
+      </c>
+      <c r="H51">
+        <v>0.002903702897692203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1507132354415206</v>
+        <v>-0.1615317063197806</v>
       </c>
       <c r="C53">
-        <v>-0.07997844392124401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05176626991302019</v>
+      </c>
+      <c r="D53">
+        <v>-0.02443907877192865</v>
+      </c>
+      <c r="E53">
+        <v>0.03455084542147902</v>
+      </c>
+      <c r="F53">
+        <v>-0.0166523966814496</v>
+      </c>
+      <c r="G53">
+        <v>0.005367144484488382</v>
+      </c>
+      <c r="H53">
+        <v>-0.146446467580012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05539869334349225</v>
+        <v>-0.05590381840453666</v>
       </c>
       <c r="C54">
-        <v>-0.02323817452854353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01085233511580809</v>
+      </c>
+      <c r="D54">
+        <v>-0.01931681294091357</v>
+      </c>
+      <c r="E54">
+        <v>-0.04944171286014398</v>
+      </c>
+      <c r="F54">
+        <v>-0.003557532922403342</v>
+      </c>
+      <c r="G54">
+        <v>0.0194812651771369</v>
+      </c>
+      <c r="H54">
+        <v>-0.0661089877120916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0991065214829933</v>
+        <v>-0.1020173377926576</v>
       </c>
       <c r="C55">
-        <v>-0.05544244510494702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03551095538944439</v>
+      </c>
+      <c r="D55">
+        <v>-0.02644192591817257</v>
+      </c>
+      <c r="E55">
+        <v>-0.01203985832352742</v>
+      </c>
+      <c r="F55">
+        <v>-0.01383505258312126</v>
+      </c>
+      <c r="G55">
+        <v>0.01800020993533035</v>
+      </c>
+      <c r="H55">
+        <v>-0.1451423638917663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1476992846228961</v>
+        <v>-0.1599005405011479</v>
       </c>
       <c r="C56">
-        <v>-0.09193720496557302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06382768983258645</v>
+      </c>
+      <c r="D56">
+        <v>-0.02074982500534345</v>
+      </c>
+      <c r="E56">
+        <v>0.03498594537700862</v>
+      </c>
+      <c r="F56">
+        <v>-0.03267957849263765</v>
+      </c>
+      <c r="G56">
+        <v>0.001032082355186649</v>
+      </c>
+      <c r="H56">
+        <v>-0.1523087340779953</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1195762786608032</v>
+        <v>-0.09575153951668929</v>
       </c>
       <c r="C58">
-        <v>-0.003449952972266386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03586544569195695</v>
+      </c>
+      <c r="D58">
+        <v>-0.04451580227091069</v>
+      </c>
+      <c r="E58">
+        <v>-0.1618837705765775</v>
+      </c>
+      <c r="F58">
+        <v>0.0004131509453981157</v>
+      </c>
+      <c r="G58">
+        <v>-0.06086107999221316</v>
+      </c>
+      <c r="H58">
+        <v>0.1348090774033412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1197142676546023</v>
+        <v>-0.1421368932614434</v>
       </c>
       <c r="C59">
-        <v>-0.0800818750077824</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.0889835685076816</v>
+      </c>
+      <c r="D59">
+        <v>0.3616714709361076</v>
+      </c>
+      <c r="E59">
+        <v>-0.04584367082303029</v>
+      </c>
+      <c r="F59">
+        <v>-0.00709144073352287</v>
+      </c>
+      <c r="G59">
+        <v>-0.04172066473574518</v>
+      </c>
+      <c r="H59">
+        <v>0.0004232344483929292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2016383164959016</v>
+        <v>-0.2286520268321214</v>
       </c>
       <c r="C60">
-        <v>-0.1022683819832178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06810189891882468</v>
+      </c>
+      <c r="D60">
+        <v>-0.03975715026529307</v>
+      </c>
+      <c r="E60">
+        <v>0.07960499957780952</v>
+      </c>
+      <c r="F60">
+        <v>-0.06299028339496429</v>
+      </c>
+      <c r="G60">
+        <v>0.01035376409554688</v>
+      </c>
+      <c r="H60">
+        <v>0.1725971689231565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07965508516343385</v>
+        <v>-0.08720182496413487</v>
       </c>
       <c r="C61">
-        <v>-0.04944211129824005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03225597994803726</v>
+      </c>
+      <c r="D61">
+        <v>-0.0493248332791545</v>
+      </c>
+      <c r="E61">
+        <v>0.01228685923130679</v>
+      </c>
+      <c r="F61">
+        <v>-0.00697035610008766</v>
+      </c>
+      <c r="G61">
+        <v>0.0007532339542420017</v>
+      </c>
+      <c r="H61">
+        <v>-0.0727615118126257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1278200058568366</v>
+        <v>-0.1390942628759468</v>
       </c>
       <c r="C62">
-        <v>-0.06764550412002894</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04333673476957181</v>
+      </c>
+      <c r="D62">
+        <v>-0.02923357607837711</v>
+      </c>
+      <c r="E62">
+        <v>0.0587185718311502</v>
+      </c>
+      <c r="F62">
+        <v>-0.01165974654487036</v>
+      </c>
+      <c r="G62">
+        <v>0.03959960280281233</v>
+      </c>
+      <c r="H62">
+        <v>-0.1523426870409598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05350653175509031</v>
+        <v>-0.05183727701951239</v>
       </c>
       <c r="C63">
-        <v>-0.02626367488216366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01328424967383969</v>
+      </c>
+      <c r="D63">
+        <v>-0.02345899323767604</v>
+      </c>
+      <c r="E63">
+        <v>-0.05246704107775269</v>
+      </c>
+      <c r="F63">
+        <v>0.006908930612473433</v>
+      </c>
+      <c r="G63">
+        <v>0.03910864109764982</v>
+      </c>
+      <c r="H63">
+        <v>-0.06977793646379721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1087790930765204</v>
+        <v>-0.1114132472579829</v>
       </c>
       <c r="C64">
-        <v>-0.02718109671426274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004174731909973465</v>
+      </c>
+      <c r="D64">
+        <v>-0.04557594349832697</v>
+      </c>
+      <c r="E64">
+        <v>-0.03174585003798985</v>
+      </c>
+      <c r="F64">
+        <v>-0.04664377113505274</v>
+      </c>
+      <c r="G64">
+        <v>0.04264210421337843</v>
+      </c>
+      <c r="H64">
+        <v>-0.06778536693204577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1219429920224808</v>
+        <v>-0.1277031311937675</v>
       </c>
       <c r="C65">
-        <v>-0.06013156820586096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03740375243111058</v>
+      </c>
+      <c r="D65">
+        <v>-0.005594087086987892</v>
+      </c>
+      <c r="E65">
+        <v>-0.0003250562606856108</v>
+      </c>
+      <c r="F65">
+        <v>-0.0719531049024838</v>
+      </c>
+      <c r="G65">
+        <v>0.05246296112194548</v>
+      </c>
+      <c r="H65">
+        <v>0.08682015929936616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1448562410148918</v>
+        <v>-0.1560964242146333</v>
       </c>
       <c r="C66">
-        <v>-0.07642418705065994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04349570094037278</v>
+      </c>
+      <c r="D66">
+        <v>-0.1073530082303487</v>
+      </c>
+      <c r="E66">
+        <v>0.04756078361409424</v>
+      </c>
+      <c r="F66">
+        <v>-0.02215234982750475</v>
+      </c>
+      <c r="G66">
+        <v>0.04123135387389833</v>
+      </c>
+      <c r="H66">
+        <v>-0.1470094154551441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0734359758953968</v>
+        <v>-0.08090497146964444</v>
       </c>
       <c r="C67">
-        <v>-0.01510180918971441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00479764426324141</v>
+      </c>
+      <c r="D67">
+        <v>-0.02600305648997782</v>
+      </c>
+      <c r="E67">
+        <v>-0.03234815794376415</v>
+      </c>
+      <c r="F67">
+        <v>-0.006099157701078511</v>
+      </c>
+      <c r="G67">
+        <v>-0.002164866967262579</v>
+      </c>
+      <c r="H67">
+        <v>-0.02612262917641753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06050199514234942</v>
+        <v>-0.06317923904227182</v>
       </c>
       <c r="C68">
-        <v>-0.04987080627077434</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05674133862778104</v>
+      </c>
+      <c r="D68">
+        <v>0.263347349210298</v>
+      </c>
+      <c r="E68">
+        <v>-0.0465831425956558</v>
+      </c>
+      <c r="F68">
+        <v>-0.01055016679024067</v>
+      </c>
+      <c r="G68">
+        <v>-0.01572163975362692</v>
+      </c>
+      <c r="H68">
+        <v>-0.01567082016769883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05179654024737304</v>
+        <v>-0.05166261172560686</v>
       </c>
       <c r="C69">
-        <v>-0.01837428886208132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004643885462690217</v>
+      </c>
+      <c r="D69">
+        <v>-0.01873896916306421</v>
+      </c>
+      <c r="E69">
+        <v>-0.02541205481148995</v>
+      </c>
+      <c r="F69">
+        <v>0.008035056938477364</v>
+      </c>
+      <c r="G69">
+        <v>-0.01179288156380555</v>
+      </c>
+      <c r="H69">
+        <v>-0.05496274001393388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004991249841153857</v>
+        <v>-0.02490264662665086</v>
       </c>
       <c r="C70">
-        <v>0.004537756298961029</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0004512100620355425</v>
+      </c>
+      <c r="D70">
+        <v>0.0007557228331134554</v>
+      </c>
+      <c r="E70">
+        <v>0.02513782678553013</v>
+      </c>
+      <c r="F70">
+        <v>-0.02352511709154974</v>
+      </c>
+      <c r="G70">
+        <v>-0.02663659457319905</v>
+      </c>
+      <c r="H70">
+        <v>0.05704581952106629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06287488561765243</v>
+        <v>-0.06745655781348452</v>
       </c>
       <c r="C71">
-        <v>-0.05094159173359206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05965599930624368</v>
+      </c>
+      <c r="D71">
+        <v>0.2917476288571227</v>
+      </c>
+      <c r="E71">
+        <v>-0.04181361209086589</v>
+      </c>
+      <c r="F71">
+        <v>-0.04503653378626706</v>
+      </c>
+      <c r="G71">
+        <v>-0.002201266863138907</v>
+      </c>
+      <c r="H71">
+        <v>-0.02169717148458201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1404883802393052</v>
+        <v>-0.1528709766848335</v>
       </c>
       <c r="C72">
-        <v>-0.06423551956167185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03894342474797504</v>
+      </c>
+      <c r="D72">
+        <v>0.006811298613441364</v>
+      </c>
+      <c r="E72">
+        <v>0.108946937685711</v>
+      </c>
+      <c r="F72">
+        <v>0.1575472863724758</v>
+      </c>
+      <c r="G72">
+        <v>0.1136322360203953</v>
+      </c>
+      <c r="H72">
+        <v>-0.01590684235544658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2665159904072276</v>
+        <v>-0.2859199784159802</v>
       </c>
       <c r="C73">
-        <v>-0.1142785343984293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05589710586774529</v>
+      </c>
+      <c r="D73">
+        <v>-0.09753419239567231</v>
+      </c>
+      <c r="E73">
+        <v>0.1991412020127457</v>
+      </c>
+      <c r="F73">
+        <v>-0.1172549927762329</v>
+      </c>
+      <c r="G73">
+        <v>-0.2208494701527285</v>
+      </c>
+      <c r="H73">
+        <v>0.5092802788368014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07957856461801845</v>
+        <v>-0.09052335071232141</v>
       </c>
       <c r="C74">
-        <v>-0.07748318411560209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05865353050960258</v>
+      </c>
+      <c r="D74">
+        <v>-0.0308859268690482</v>
+      </c>
+      <c r="E74">
+        <v>0.007129509948755125</v>
+      </c>
+      <c r="F74">
+        <v>0.01472311098793054</v>
+      </c>
+      <c r="G74">
+        <v>-0.02775849748730628</v>
+      </c>
+      <c r="H74">
+        <v>-0.1229060218994955</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09515731821274211</v>
+        <v>-0.1014561280109092</v>
       </c>
       <c r="C75">
-        <v>-0.05273281659907371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02887010065019774</v>
+      </c>
+      <c r="D75">
+        <v>-0.01093349297130124</v>
+      </c>
+      <c r="E75">
+        <v>-0.01053864276936868</v>
+      </c>
+      <c r="F75">
+        <v>-0.03875350858054397</v>
+      </c>
+      <c r="G75">
+        <v>-0.003347763411342543</v>
+      </c>
+      <c r="H75">
+        <v>-0.115456433657642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1278554677894027</v>
+        <v>-0.1367073741150412</v>
       </c>
       <c r="C76">
-        <v>-0.08279776229161849</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0544094299840352</v>
+      </c>
+      <c r="D76">
+        <v>-0.05658665555524351</v>
+      </c>
+      <c r="E76">
+        <v>-0.02184182830337759</v>
+      </c>
+      <c r="F76">
+        <v>-0.04389123787466323</v>
+      </c>
+      <c r="G76">
+        <v>0.008653763064048754</v>
+      </c>
+      <c r="H76">
+        <v>-0.1509987128559513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1222621264805026</v>
+        <v>-0.1142265986268175</v>
       </c>
       <c r="C77">
-        <v>-0.02819474260072742</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.003106047792843354</v>
+      </c>
+      <c r="D77">
+        <v>-0.01735453655909667</v>
+      </c>
+      <c r="E77">
+        <v>0.009729246099719457</v>
+      </c>
+      <c r="F77">
+        <v>-0.1725039948109046</v>
+      </c>
+      <c r="G77">
+        <v>0.8762138382811612</v>
+      </c>
+      <c r="H77">
+        <v>0.2404677199457461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09539766166255657</v>
+        <v>-0.1282362599842644</v>
       </c>
       <c r="C78">
-        <v>-0.04134704678415185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03161215109694501</v>
+      </c>
+      <c r="D78">
+        <v>-0.08919314931392409</v>
+      </c>
+      <c r="E78">
+        <v>-0.061783207791555</v>
+      </c>
+      <c r="F78">
+        <v>-0.01787472635166681</v>
+      </c>
+      <c r="G78">
+        <v>0.04259196196914464</v>
+      </c>
+      <c r="H78">
+        <v>0.0770782543196845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1475386958981045</v>
+        <v>-0.1524237708681331</v>
       </c>
       <c r="C79">
-        <v>-0.08162490367367957</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04662666428048328</v>
+      </c>
+      <c r="D79">
+        <v>-0.02922452995936803</v>
+      </c>
+      <c r="E79">
+        <v>0.01399795481980909</v>
+      </c>
+      <c r="F79">
+        <v>-0.01058682201185541</v>
+      </c>
+      <c r="G79">
+        <v>-0.01408198117144515</v>
+      </c>
+      <c r="H79">
+        <v>-0.1650675911891437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04238170143722392</v>
+        <v>-0.04183201467439475</v>
       </c>
       <c r="C80">
-        <v>-0.01465926401555063</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005538993572977006</v>
+      </c>
+      <c r="D80">
+        <v>-0.02433568249222152</v>
+      </c>
+      <c r="E80">
+        <v>0.01296477991347189</v>
+      </c>
+      <c r="F80">
+        <v>0.01535586889171527</v>
+      </c>
+      <c r="G80">
+        <v>-0.03876721333716186</v>
+      </c>
+      <c r="H80">
+        <v>-0.04133976463043389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1186109126803044</v>
+        <v>-0.1214906220237497</v>
       </c>
       <c r="C81">
-        <v>-0.06553608747844428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03588428961842248</v>
+      </c>
+      <c r="D81">
+        <v>-0.02755492087972677</v>
+      </c>
+      <c r="E81">
+        <v>-0.01290095205764206</v>
+      </c>
+      <c r="F81">
+        <v>-0.01940202794199226</v>
+      </c>
+      <c r="G81">
+        <v>-0.03370371740491082</v>
+      </c>
+      <c r="H81">
+        <v>-0.1739988425550635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1267898029490687</v>
+        <v>-0.1290371111570996</v>
       </c>
       <c r="C82">
-        <v>-0.0776917198897864</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04840084934070354</v>
+      </c>
+      <c r="D82">
+        <v>-0.03175325948154761</v>
+      </c>
+      <c r="E82">
+        <v>0.01284075280149313</v>
+      </c>
+      <c r="F82">
+        <v>-0.05739424168369041</v>
+      </c>
+      <c r="G82">
+        <v>-0.02619407686581746</v>
+      </c>
+      <c r="H82">
+        <v>-0.1802816547444535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07776201237584167</v>
+        <v>-0.08489763454125984</v>
       </c>
       <c r="C83">
-        <v>0.00294543354267624</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01958655427728252</v>
+      </c>
+      <c r="D83">
+        <v>-0.04131828218441586</v>
+      </c>
+      <c r="E83">
+        <v>-0.02112699762507407</v>
+      </c>
+      <c r="F83">
+        <v>-0.05832229655019234</v>
+      </c>
+      <c r="G83">
+        <v>-0.1006132811752485</v>
+      </c>
+      <c r="H83">
+        <v>0.05424282375330608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02889043333540499</v>
+        <v>-0.03987960902975219</v>
       </c>
       <c r="C84">
-        <v>-0.02451112327227697</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01883149467128389</v>
+      </c>
+      <c r="D84">
+        <v>-0.03451837801200505</v>
+      </c>
+      <c r="E84">
+        <v>-0.02157616654229612</v>
+      </c>
+      <c r="F84">
+        <v>0.05067063400391656</v>
+      </c>
+      <c r="G84">
+        <v>-0.06253481383841097</v>
+      </c>
+      <c r="H84">
+        <v>-0.02452093744553983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1192670222149478</v>
+        <v>-0.1198526544029575</v>
       </c>
       <c r="C85">
-        <v>-0.06108570399093087</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03104475225272422</v>
+      </c>
+      <c r="D85">
+        <v>-0.02985913624514025</v>
+      </c>
+      <c r="E85">
+        <v>-0.01723427108637023</v>
+      </c>
+      <c r="F85">
+        <v>-0.04299601973556543</v>
+      </c>
+      <c r="G85">
+        <v>-0.005520619890438991</v>
+      </c>
+      <c r="H85">
+        <v>-0.141239799263972</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04998854469981039</v>
+        <v>-0.05595579273171379</v>
       </c>
       <c r="C86">
-        <v>-0.03002562253378722</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01884066075518131</v>
+      </c>
+      <c r="D86">
+        <v>-0.02376608138816207</v>
+      </c>
+      <c r="E86">
+        <v>-0.05002244391842223</v>
+      </c>
+      <c r="F86">
+        <v>-0.02590658310122814</v>
+      </c>
+      <c r="G86">
+        <v>-0.004772937071232071</v>
+      </c>
+      <c r="H86">
+        <v>-0.02193404884543497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1200145944570554</v>
+        <v>-0.1208708258542535</v>
       </c>
       <c r="C87">
-        <v>-0.07036160248559292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03573657087355818</v>
+      </c>
+      <c r="D87">
+        <v>-0.07753265422812972</v>
+      </c>
+      <c r="E87">
+        <v>-0.01702458778958454</v>
+      </c>
+      <c r="F87">
+        <v>-0.002502307268254857</v>
+      </c>
+      <c r="G87">
+        <v>0.1085623276919375</v>
+      </c>
+      <c r="H87">
+        <v>0.01847022200763499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0543471187342254</v>
+        <v>-0.0600148957493221</v>
       </c>
       <c r="C88">
-        <v>-0.03212556668953763</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02065788644896206</v>
+      </c>
+      <c r="D88">
+        <v>-0.02627816702361224</v>
+      </c>
+      <c r="E88">
+        <v>-0.01732196874579852</v>
+      </c>
+      <c r="F88">
+        <v>-0.006062194863414647</v>
+      </c>
+      <c r="G88">
+        <v>0.01570916098289503</v>
+      </c>
+      <c r="H88">
+        <v>-0.05771197831649968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08595222277203708</v>
+        <v>-0.1010322378031643</v>
       </c>
       <c r="C89">
-        <v>-0.06757445715959309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0797892580035349</v>
+      </c>
+      <c r="D89">
+        <v>0.3345668607736037</v>
+      </c>
+      <c r="E89">
+        <v>-0.08245303349949909</v>
+      </c>
+      <c r="F89">
+        <v>-0.07674810788500717</v>
+      </c>
+      <c r="G89">
+        <v>-0.01984236221108244</v>
+      </c>
+      <c r="H89">
+        <v>-0.01346459251402746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0744749090513669</v>
+        <v>-0.08463367888884669</v>
       </c>
       <c r="C90">
-        <v>-0.05887944433029859</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06752883191308875</v>
+      </c>
+      <c r="D90">
+        <v>0.3049315523383411</v>
+      </c>
+      <c r="E90">
+        <v>-0.06594965585563728</v>
+      </c>
+      <c r="F90">
+        <v>-0.008358684896770279</v>
+      </c>
+      <c r="G90">
+        <v>-0.003818054169052967</v>
+      </c>
+      <c r="H90">
+        <v>-0.01909675863326152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08458257992364715</v>
+        <v>-0.08834146483424932</v>
       </c>
       <c r="C91">
-        <v>-0.05412891109662373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03330073105657027</v>
+      </c>
+      <c r="D91">
+        <v>-0.03087070391928449</v>
+      </c>
+      <c r="E91">
+        <v>-0.01279918746565876</v>
+      </c>
+      <c r="F91">
+        <v>-0.003630522783031513</v>
+      </c>
+      <c r="G91">
+        <v>-0.04230399424740387</v>
+      </c>
+      <c r="H91">
+        <v>-0.07331386445164419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08281495380051271</v>
+        <v>-0.09189901539834615</v>
       </c>
       <c r="C92">
-        <v>-0.07844764222365104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08704419132451928</v>
+      </c>
+      <c r="D92">
+        <v>0.3414848627202757</v>
+      </c>
+      <c r="E92">
+        <v>-0.05939641011520459</v>
+      </c>
+      <c r="F92">
+        <v>-0.03492394917757579</v>
+      </c>
+      <c r="G92">
+        <v>0.005901998327465035</v>
+      </c>
+      <c r="H92">
+        <v>-0.01621024943705248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06774519467026681</v>
+        <v>-0.08303720742880924</v>
       </c>
       <c r="C93">
-        <v>-0.06410372467729818</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07753199075361293</v>
+      </c>
+      <c r="D93">
+        <v>0.3024624511105287</v>
+      </c>
+      <c r="E93">
+        <v>-0.03931568376741496</v>
+      </c>
+      <c r="F93">
+        <v>-0.04834593343368243</v>
+      </c>
+      <c r="G93">
+        <v>0.006050891183080783</v>
+      </c>
+      <c r="H93">
+        <v>0.00301353508220806</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1334396332503498</v>
+        <v>-0.1266646111345959</v>
       </c>
       <c r="C94">
-        <v>-0.05755295462454979</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02029706132538471</v>
+      </c>
+      <c r="D94">
+        <v>-0.04814297121108205</v>
+      </c>
+      <c r="E94">
+        <v>0.01576566891960486</v>
+      </c>
+      <c r="F94">
+        <v>-0.02524919017189304</v>
+      </c>
+      <c r="G94">
+        <v>-0.03492701832186298</v>
+      </c>
+      <c r="H94">
+        <v>-0.1134974824743606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1182129961286163</v>
+        <v>-0.12651226209542</v>
       </c>
       <c r="C95">
-        <v>-0.03795459749541279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.009939818367772683</v>
+      </c>
+      <c r="D95">
+        <v>-0.05650640591116009</v>
+      </c>
+      <c r="E95">
+        <v>-0.004863174210239636</v>
+      </c>
+      <c r="F95">
+        <v>-0.04018930147279662</v>
+      </c>
+      <c r="G95">
+        <v>-0.01729459529652064</v>
+      </c>
+      <c r="H95">
+        <v>0.02359689893126295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.20292054660736</v>
+        <v>-0.2147934258366067</v>
       </c>
       <c r="C97">
-        <v>-0.04554568308197674</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.0117807419657509</v>
+      </c>
+      <c r="D97">
+        <v>0.08266821918794647</v>
+      </c>
+      <c r="E97">
+        <v>0.2516946037527067</v>
+      </c>
+      <c r="F97">
+        <v>0.8847034871334675</v>
+      </c>
+      <c r="G97">
+        <v>0.1066689777078189</v>
+      </c>
+      <c r="H97">
+        <v>0.03123603186015188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2455411075205936</v>
+        <v>-0.2729662504672457</v>
       </c>
       <c r="C98">
-        <v>-0.0832469207869786</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03992123795383319</v>
+      </c>
+      <c r="D98">
+        <v>-0.06387605494305172</v>
+      </c>
+      <c r="E98">
+        <v>0.1380476493805282</v>
+      </c>
+      <c r="F98">
+        <v>-0.07358056205876924</v>
+      </c>
+      <c r="G98">
+        <v>-0.2846530035752414</v>
+      </c>
+      <c r="H98">
+        <v>0.2412090733287258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4555939295005264</v>
+        <v>-0.2870501402937179</v>
       </c>
       <c r="C99">
-        <v>0.875763611427788</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9367348557632633</v>
+      </c>
+      <c r="D99">
+        <v>0.1266158441347828</v>
+      </c>
+      <c r="E99">
+        <v>-0.05402464156224512</v>
+      </c>
+      <c r="F99">
+        <v>-0.04227629762101234</v>
+      </c>
+      <c r="G99">
+        <v>-0.01425937877441943</v>
+      </c>
+      <c r="H99">
+        <v>-0.05860198073020188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04052866620917876</v>
+        <v>-0.04715230957302377</v>
       </c>
       <c r="C101">
-        <v>-0.02999425287160173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02344287323132939</v>
+      </c>
+      <c r="D101">
+        <v>-0.006781681054704715</v>
+      </c>
+      <c r="E101">
+        <v>-0.0473204429018293</v>
+      </c>
+      <c r="F101">
+        <v>-0.000750791600665014</v>
+      </c>
+      <c r="G101">
+        <v>0.001684905670895292</v>
+      </c>
+      <c r="H101">
+        <v>-0.08452842933171685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
